--- a/datos_prueba/ING. 26_12.xlsx
+++ b/datos_prueba/ING. 26_12.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Desktop\Universidad\Sistema_Recomendador_Finales\datos_prueba\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F073FFC6-76E9-435A-8524-0262AD37F5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -79,9 +88,6 @@
     <t>ALGEBRA I</t>
   </si>
   <si>
-    <t>RESOLUCION DE PROBLEMAS Y ALGORITMOS</t>
-  </si>
-  <si>
     <t>QUIMICA</t>
   </si>
   <si>
@@ -254,42 +260,47 @@
   </si>
   <si>
     <t>OIF-2</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN DE PROBLEMAS Y ALGORITMOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-m"/>
+    <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -300,7 +311,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -310,59 +321,68 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -552,26 +572,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="61.13"/>
-    <col customWidth="1" min="5" max="5" width="19.5"/>
-    <col customWidth="1" min="6" max="6" width="18.5"/>
+    <col min="1" max="1" width="61.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +617,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -603,17 +628,17 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -626,7 +651,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -649,15 +674,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -672,15 +697,15 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
@@ -695,15 +720,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -718,15 +743,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="C8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -741,15 +766,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="C9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>20</v>
@@ -764,107 +789,107 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="C11" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="6">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="C12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -873,21 +898,21 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="C15" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
@@ -896,21 +921,21 @@
         <v>17</v>
       </c>
       <c r="F15" s="10">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
@@ -919,21 +944,21 @@
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="C17" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>20</v>
@@ -942,21 +967,21 @@
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6">
-        <v>786.0</v>
+        <v>786</v>
       </c>
       <c r="C18" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>20</v>
@@ -965,136 +990,136 @@
         <v>17</v>
       </c>
       <c r="F18" s="10">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="C19" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4">
-        <v>2034.0</v>
+        <v>2034</v>
       </c>
       <c r="C20" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6">
-        <v>786.0</v>
+        <v>786</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="C21" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="6">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="C22" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="6">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4">
+        <v>282</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="4">
-        <v>282.0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6">
-        <v>2035.0</v>
+        <v>2035</v>
       </c>
       <c r="C24" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>20</v>
@@ -1103,21 +1128,21 @@
         <v>17</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4">
-        <v>2036.0</v>
+        <v>2036</v>
       </c>
       <c r="C25" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
@@ -1126,21 +1151,21 @@
         <v>17</v>
       </c>
       <c r="F25" s="6">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
-        <v>2037.0</v>
+        <v>2037</v>
       </c>
       <c r="C26" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>20</v>
@@ -1149,21 +1174,21 @@
         <v>17</v>
       </c>
       <c r="F26" s="6">
-        <v>2034.0</v>
+        <v>2034</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4">
-        <v>652.0</v>
+        <v>652</v>
       </c>
       <c r="C27" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>20</v>
@@ -1172,21 +1197,21 @@
         <v>17</v>
       </c>
       <c r="F27" s="6">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="C28" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>20</v>
@@ -1195,136 +1220,136 @@
         <v>17</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4">
+        <v>103</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="4">
-        <v>103.0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="6">
+        <v>284</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="6">
-        <v>284.0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4">
-        <v>643.0</v>
+        <v>643</v>
       </c>
       <c r="C32" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="6">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4">
+        <v>763</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="4">
-        <v>763.0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="6">
-        <v>2047.0</v>
+        <v>2047</v>
       </c>
       <c r="C34" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>20</v>
@@ -1333,21 +1358,21 @@
         <v>17</v>
       </c>
       <c r="F34" s="6">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="C35" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>20</v>
@@ -1356,21 +1381,21 @@
         <v>17</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="4">
-        <v>2049.0</v>
+        <v>2049</v>
       </c>
       <c r="C36" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>20</v>
@@ -1379,21 +1404,21 @@
         <v>17</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6">
-        <v>2050.0</v>
+        <v>2050</v>
       </c>
       <c r="C37" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>20</v>
@@ -1402,21 +1427,21 @@
         <v>17</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="C38" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>20</v>
@@ -1425,27 +1450,27 @@
         <v>17</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="C39" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>18</v>
@@ -1454,107 +1479,107 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="6">
+        <v>2039</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B40" s="6">
-        <v>2039.0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6">
-        <v>2051.0</v>
+        <v>2051</v>
       </c>
       <c r="C41" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="6">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="6">
-        <v>2052.0</v>
+        <v>2052</v>
       </c>
       <c r="C42" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="6">
-        <v>2047.0</v>
+        <v>2047</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2053</v>
+      </c>
+      <c r="C43" s="6">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" s="6">
-        <v>2053.0</v>
-      </c>
-      <c r="C43" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="6">
-        <v>2054.0</v>
+        <v>2054</v>
       </c>
       <c r="C44" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>20</v>
@@ -1563,21 +1588,21 @@
         <v>17</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="6">
-        <v>2055.0</v>
+        <v>2055</v>
       </c>
       <c r="C45" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>20</v>
@@ -1586,21 +1611,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="6">
-        <v>2056.0</v>
+        <v>2056</v>
       </c>
       <c r="C46" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>20</v>
@@ -1609,24 +1634,24 @@
         <v>17</v>
       </c>
       <c r="F46" s="6">
-        <v>2047.0</v>
+        <v>2047</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="6">
-        <v>1042.0</v>
+        <v>1042</v>
       </c>
       <c r="C47" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -1638,18 +1663,18 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="6">
-        <v>4018.0</v>
+        <v>4018</v>
       </c>
       <c r="C48" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -1661,21 +1686,21 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>18</v>
@@ -1684,7 +1709,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1695,7 +1720,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1706,7 +1731,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1717,7 +1742,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1728,7 +1753,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1739,7 +1764,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1750,7 +1775,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1761,7 +1786,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1772,7 +1797,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1783,7 +1808,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1794,7 +1819,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1805,7 +1830,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1816,7 +1841,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1827,7 +1852,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1838,7 +1863,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1849,7 +1874,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1860,7 +1885,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1871,7 +1896,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1882,7 +1907,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1893,7 +1918,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1904,7 +1929,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1915,7 +1940,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1926,7 +1951,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1937,7 +1962,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1948,7 +1973,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1959,7 +1984,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1970,7 +1995,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1981,7 +2006,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1992,7 +2017,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2003,7 +2028,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2014,7 +2039,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2025,7 +2050,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2036,7 +2061,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2047,7 +2072,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2058,7 +2083,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2069,7 +2094,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2080,7 +2105,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2091,7 +2116,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2102,7 +2127,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2113,7 +2138,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2124,7 +2149,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2135,7 +2160,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2146,7 +2171,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2157,7 +2182,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2168,7 +2193,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2179,7 +2204,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2190,7 +2215,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2201,7 +2226,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2212,7 +2237,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2223,7 +2248,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2234,7 +2259,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2245,7 +2270,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2256,7 +2281,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2267,7 +2292,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2278,7 +2303,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2289,7 +2314,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2300,7 +2325,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2311,7 +2336,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2322,7 +2347,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2333,7 +2358,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2344,7 +2369,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2355,7 +2380,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2366,7 +2391,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2377,7 +2402,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2388,7 +2413,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2399,7 +2424,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2410,7 +2435,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2421,7 +2446,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2432,7 +2457,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2443,7 +2468,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2454,7 +2479,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2465,7 +2490,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2476,7 +2501,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2487,7 +2512,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2498,35 +2523,35 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2534,9 +2559,8 @@
       <c r="E128" s="2"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>